--- a/SIMD编程/time.xlsx
+++ b/SIMD编程/time.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>time</t>
   </si>
@@ -965,20 +965,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.3628318584071" customWidth="1"/>
     <col min="2" max="2" width="13.6814159292035" customWidth="1"/>
     <col min="4" max="4" width="9.53097345132743"/>
+    <col min="8" max="8" width="9.53097345132743"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,8 +992,14 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>15820.5</v>
       </c>
@@ -1000,13 +1007,19 @@
         <v>0.99995</v>
       </c>
       <c r="D2">
-        <v>6063.32</v>
+        <v>8254.43</v>
       </c>
       <c r="E2">
         <v>0.99995</v>
       </c>
+      <c r="G2">
+        <v>5528.52</v>
+      </c>
+      <c r="H2">
+        <v>0.982303</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>21795.9</v>
       </c>
@@ -1019,8 +1032,14 @@
       <c r="E3">
         <v>0.99995</v>
       </c>
+      <c r="G3">
+        <v>5535.54</v>
+      </c>
+      <c r="H3">
+        <v>0.982303</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>21134.3</v>
       </c>
@@ -1028,13 +1047,19 @@
         <v>0.99995</v>
       </c>
       <c r="D4">
-        <v>6020.14</v>
+        <v>7575.31</v>
       </c>
       <c r="E4">
         <v>0.99995</v>
       </c>
+      <c r="G4">
+        <v>5597.49</v>
+      </c>
+      <c r="H4">
+        <v>0.982303</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>16243.4</v>
       </c>
@@ -1047,8 +1072,14 @@
       <c r="E5">
         <v>0.99995</v>
       </c>
+      <c r="G5">
+        <v>5572.33</v>
+      </c>
+      <c r="H5">
+        <v>0.982303</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>16243.4</v>
       </c>
@@ -1061,23 +1092,37 @@
       <c r="E6">
         <v>0.99995</v>
       </c>
+      <c r="G6">
+        <v>5655.36</v>
+      </c>
+      <c r="H6">
+        <v>0.982303</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>18247.5</v>
       </c>
       <c r="B7">
-        <f>AVERAGE(B2:B6)</f>
+        <f t="shared" ref="B7:H7" si="0">AVERAGE(B2:B6)</f>
         <v>0.99995</v>
       </c>
       <c r="D7">
-        <f>AVERAGE(D2:D6)</f>
-        <v>7787.926</v>
+        <f t="shared" si="0"/>
+        <v>8537.182</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>0.99995</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5577.848</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.982303</v>
       </c>
     </row>
   </sheetData>

--- a/SIMD编程/time.xlsx
+++ b/SIMD编程/time.xlsx
@@ -29,12 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>time</t>
   </si>
   <si>
     <t>recall</t>
+  </si>
+  <si>
+    <t>平凡算法</t>
+  </si>
+  <si>
+    <t>instruction retired</t>
+  </si>
+  <si>
+    <t>119520148800</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>memory bound</t>
   </si>
 </sst>
 </file>
@@ -650,8 +665,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,21 +989,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.3628318584071" customWidth="1"/>
     <col min="2" max="2" width="13.6814159292035" customWidth="1"/>
     <col min="4" max="4" width="9.53097345132743"/>
     <col min="8" max="8" width="9.53097345132743"/>
+    <col min="11" max="11" width="9.53097345132743"/>
+    <col min="14" max="14" width="23.4955752212389" customWidth="1"/>
+    <col min="15" max="16" width="16.7964601769912" customWidth="1"/>
+    <col min="17" max="17" width="19.7433628318584" customWidth="1"/>
+    <col min="18" max="18" width="16.0442477876106" customWidth="1"/>
+    <col min="19" max="19" width="18.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1028,14 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>15820.5</v>
       </c>
@@ -1018,8 +1054,14 @@
       <c r="H2">
         <v>0.982303</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2">
+        <v>8254.43</v>
+      </c>
+      <c r="L2">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>21795.9</v>
       </c>
@@ -1038,8 +1080,14 @@
       <c r="H3">
         <v>0.982303</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3">
+        <v>9952.46</v>
+      </c>
+      <c r="L3">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>21134.3</v>
       </c>
@@ -1058,8 +1106,14 @@
       <c r="H4">
         <v>0.982303</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4">
+        <v>7575.31</v>
+      </c>
+      <c r="L4">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>16243.4</v>
       </c>
@@ -1078,8 +1132,14 @@
       <c r="H5">
         <v>0.982303</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5">
+        <v>8103.94</v>
+      </c>
+      <c r="L5">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>16243.4</v>
       </c>
@@ -1098,8 +1158,14 @@
       <c r="H6">
         <v>0.982303</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6">
+        <v>8799.77</v>
+      </c>
+      <c r="L6">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>18247.5</v>
@@ -1123,6 +1189,355 @@
       <c r="H7">
         <f t="shared" si="0"/>
         <v>0.982303</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(K2:K6)</f>
+        <v>8537.182</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="9" spans="11:19">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5909.58</v>
+      </c>
+      <c r="L10">
+        <v>0.99995</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <f>14291464100+19414247900</f>
+        <v>33705712000</v>
+      </c>
+      <c r="Q10">
+        <f>8547534000+8101354000</f>
+        <v>16648888000</v>
+      </c>
+      <c r="R10">
+        <f>9015385600+5614856600</f>
+        <v>14630242200</v>
+      </c>
+      <c r="S10">
+        <f>4865274200+4333682600</f>
+        <v>9198956800</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19">
+      <c r="D11">
+        <v>4573.64</v>
+      </c>
+      <c r="E11">
+        <v>0.99995</v>
+      </c>
+      <c r="K11">
+        <v>5849.69</v>
+      </c>
+      <c r="L11">
+        <v>0.99995</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0.337</v>
+      </c>
+      <c r="P11">
+        <v>0.396</v>
+      </c>
+      <c r="Q11">
+        <v>0.545</v>
+      </c>
+      <c r="R11">
+        <v>0.722</v>
+      </c>
+      <c r="S11">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12">
+        <v>4582.23</v>
+      </c>
+      <c r="E12">
+        <v>0.99995</v>
+      </c>
+      <c r="K12">
+        <v>5655.36</v>
+      </c>
+      <c r="L12">
+        <v>0.99995</v>
+      </c>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.337</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.4521</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="D13">
+        <v>4690.32</v>
+      </c>
+      <c r="E13">
+        <v>0.99995</v>
+      </c>
+      <c r="K13">
+        <v>5597.49</v>
+      </c>
+      <c r="L13">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="D14">
+        <v>4994.82</v>
+      </c>
+      <c r="E14">
+        <v>0.99995</v>
+      </c>
+      <c r="K14">
+        <v>5560.34</v>
+      </c>
+      <c r="L14">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="D15">
+        <v>4573.64</v>
+      </c>
+      <c r="E15">
+        <v>0.99995</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGE(K10:K14)</f>
+        <v>5714.492</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(L10:L14)</f>
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16">
+        <f>AVERAGE(D11:D15)</f>
+        <v>4682.93</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(E11:E15)</f>
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12">
+      <c r="K18">
+        <v>4573.64</v>
+      </c>
+      <c r="L18">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>4582.23</v>
+      </c>
+      <c r="L19">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12">
+      <c r="D20">
+        <v>7123.33</v>
+      </c>
+      <c r="E20">
+        <v>0.99995</v>
+      </c>
+      <c r="K20">
+        <v>4690.32</v>
+      </c>
+      <c r="L20">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12">
+      <c r="D21">
+        <v>4212.13</v>
+      </c>
+      <c r="E21">
+        <v>0.99995</v>
+      </c>
+      <c r="K21">
+        <v>4994.82</v>
+      </c>
+      <c r="L21">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22">
+        <v>5908.87</v>
+      </c>
+      <c r="E22">
+        <v>0.99995</v>
+      </c>
+      <c r="K22">
+        <v>4573.64</v>
+      </c>
+      <c r="L22">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23">
+        <v>5908.87</v>
+      </c>
+      <c r="E23">
+        <v>0.99995</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(K18:K22)</f>
+        <v>4682.93</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(L18:L22)</f>
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24">
+        <v>5301.64</v>
+      </c>
+      <c r="E24">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25">
+        <f>AVERAGE(D20:D24)</f>
+        <v>5690.968</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(E20:E24)</f>
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12">
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12">
+      <c r="K27">
+        <v>7123.33</v>
+      </c>
+      <c r="L27">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12">
+      <c r="K28">
+        <v>4212.13</v>
+      </c>
+      <c r="L28">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12">
+      <c r="K29">
+        <v>5908.87</v>
+      </c>
+      <c r="L29">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12">
+      <c r="K30">
+        <v>5908.87</v>
+      </c>
+      <c r="L30">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12">
+      <c r="K31">
+        <v>5301.64</v>
+      </c>
+      <c r="L31">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="32" spans="11:12">
+      <c r="K32">
+        <f>AVERAGE(K27:K31)</f>
+        <v>5690.968</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(L27:L31)</f>
+        <v>0.99995</v>
       </c>
     </row>
   </sheetData>

--- a/SIMD编程/time.xlsx
+++ b/SIMD编程/time.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>time</t>
   </si>
@@ -50,6 +50,51 @@
   </si>
   <si>
     <t>memory bound</t>
+  </si>
+  <si>
+    <t>L1_HIT</t>
+  </si>
+  <si>
+    <t>L1_MISS</t>
+  </si>
+  <si>
+    <t>L2_HIT</t>
+  </si>
+  <si>
+    <t>L2_MISS</t>
+  </si>
+  <si>
+    <t>L3_HIT</t>
+  </si>
+  <si>
+    <t>L3_MISS</t>
+  </si>
+  <si>
+    <t>不对齐</t>
+  </si>
+  <si>
+    <t>对齐</t>
+  </si>
+  <si>
+    <t>instructions retired</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>对齐：</t>
+  </si>
+  <si>
+    <t>平凡</t>
+  </si>
+  <si>
+    <t>simd</t>
+  </si>
+  <si>
+    <t>不对齐：</t>
   </si>
 </sst>
 </file>
@@ -215,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -541,7 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,16 +616,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -583,94 +634,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -989,24 +1052,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.3628318584071" customWidth="1"/>
     <col min="2" max="2" width="13.6814159292035" customWidth="1"/>
-    <col min="4" max="4" width="9.53097345132743"/>
-    <col min="8" max="8" width="9.53097345132743"/>
+    <col min="3" max="3" width="12.7964601769912"/>
+    <col min="4" max="5" width="10.5309734513274"/>
+    <col min="6" max="8" width="9.53097345132743"/>
     <col min="11" max="11" width="9.53097345132743"/>
     <col min="14" max="14" width="23.4955752212389" customWidth="1"/>
-    <col min="15" max="16" width="16.7964601769912" customWidth="1"/>
-    <col min="17" max="17" width="19.7433628318584" customWidth="1"/>
-    <col min="18" max="18" width="16.0442477876106" customWidth="1"/>
-    <col min="19" max="19" width="18.8230088495575" customWidth="1"/>
+    <col min="15" max="15" width="21.5044247787611" customWidth="1"/>
+    <col min="16" max="16" width="20.8938053097345" customWidth="1"/>
+    <col min="17" max="17" width="16.7964601769912" customWidth="1"/>
+    <col min="18" max="18" width="19.7433628318584" customWidth="1"/>
+    <col min="19" max="19" width="16.0442477876106" customWidth="1"/>
+    <col min="20" max="20" width="18.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1016,12 +1082,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -1042,12 +1102,6 @@
       <c r="B2">
         <v>0.99995</v>
       </c>
-      <c r="D2">
-        <v>8254.43</v>
-      </c>
-      <c r="E2">
-        <v>0.99995</v>
-      </c>
       <c r="G2">
         <v>5528.52</v>
       </c>
@@ -1068,12 +1122,6 @@
       <c r="B3">
         <v>0.99995</v>
       </c>
-      <c r="D3">
-        <v>9952.46</v>
-      </c>
-      <c r="E3">
-        <v>0.99995</v>
-      </c>
       <c r="G3">
         <v>5535.54</v>
       </c>
@@ -1094,12 +1142,6 @@
       <c r="B4">
         <v>0.99995</v>
       </c>
-      <c r="D4">
-        <v>7575.31</v>
-      </c>
-      <c r="E4">
-        <v>0.99995</v>
-      </c>
       <c r="G4">
         <v>5597.49</v>
       </c>
@@ -1120,12 +1162,6 @@
       <c r="B5">
         <v>0.99995</v>
       </c>
-      <c r="D5">
-        <v>8103.94</v>
-      </c>
-      <c r="E5">
-        <v>0.99995</v>
-      </c>
       <c r="G5">
         <v>5572.33</v>
       </c>
@@ -1144,12 +1180,6 @@
         <v>16243.4</v>
       </c>
       <c r="B6">
-        <v>0.99995</v>
-      </c>
-      <c r="D6">
-        <v>8799.77</v>
-      </c>
-      <c r="E6">
         <v>0.99995</v>
       </c>
       <c r="G6">
@@ -1174,14 +1204,6 @@
         <f t="shared" ref="B7:H7" si="0">AVERAGE(B2:B6)</f>
         <v>0.99995</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>8537.182</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.99995</v>
-      </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>5577.848</v>
@@ -1199,7 +1221,7 @@
         <v>0.99995</v>
       </c>
     </row>
-    <row r="9" spans="11:19">
+    <row r="9" spans="11:20">
       <c r="K9" t="s">
         <v>0</v>
       </c>
@@ -1209,26 +1231,20 @@
       <c r="O9" t="s">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>4</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>16</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="4:19">
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
+    <row r="10" spans="11:20">
       <c r="K10">
         <v>5909.58</v>
       </c>
@@ -1238,33 +1254,27 @@
       <c r="N10" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f>14291464100+19414247900</f>
         <v>33705712000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f>8547534000+8101354000</f>
         <v>16648888000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f>9015385600+5614856600</f>
         <v>14630242200</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f>4865274200+4333682600</f>
         <v>9198956800</v>
       </c>
     </row>
-    <row r="11" spans="4:19">
-      <c r="D11">
-        <v>4573.64</v>
-      </c>
-      <c r="E11">
-        <v>0.99995</v>
-      </c>
+    <row r="11" spans="11:20">
       <c r="K11">
         <v>5849.69</v>
       </c>
@@ -1277,26 +1287,20 @@
       <c r="O11">
         <v>0.337</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.396</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.545</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.722</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1.347</v>
       </c>
     </row>
-    <row r="12" spans="4:19">
-      <c r="D12">
-        <v>4582.23</v>
-      </c>
-      <c r="E12">
-        <v>0.99995</v>
-      </c>
+    <row r="12" spans="11:20">
       <c r="K12">
         <v>5655.36</v>
       </c>
@@ -1306,28 +1310,29 @@
       <c r="N12" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <v>0.17</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>0.337</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="3">
         <v>0.4521</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="6">
         <v>0.64</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="6">
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="4:12">
-      <c r="D13">
-        <v>4690.32</v>
-      </c>
-      <c r="E13">
-        <v>0.99995</v>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
       </c>
       <c r="K13">
         <v>5597.49</v>
@@ -1336,12 +1341,18 @@
         <v>0.99995</v>
       </c>
     </row>
-    <row r="14" spans="4:12">
-      <c r="D14">
-        <v>4994.82</v>
-      </c>
-      <c r="E14">
-        <v>0.99995</v>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2824.07</v>
+      </c>
+      <c r="B14">
+        <v>0.902005</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
       </c>
       <c r="K14">
         <v>5560.34</v>
@@ -1350,12 +1361,18 @@
         <v>0.99995</v>
       </c>
     </row>
-    <row r="15" spans="4:12">
-      <c r="D15">
-        <v>4573.64</v>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>2783.2</v>
+      </c>
+      <c r="B15">
+        <v>0.902005</v>
       </c>
       <c r="E15">
-        <v>0.99995</v>
+        <v>758.156</v>
+      </c>
+      <c r="F15">
+        <v>0.902455</v>
       </c>
       <c r="K15">
         <f>AVERAGE(K10:K14)</f>
@@ -1366,38 +1383,127 @@
         <v>0.99995</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
-      <c r="D16">
-        <f>AVERAGE(D11:D15)</f>
-        <v>4682.93</v>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>2889.45</v>
+      </c>
+      <c r="B16">
+        <v>0.902005</v>
       </c>
       <c r="E16">
-        <f>AVERAGE(E11:E15)</f>
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12">
+        <v>759.52</v>
+      </c>
+      <c r="F16">
+        <v>0.902455</v>
+      </c>
+      <c r="O16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>2814.32</v>
+      </c>
+      <c r="B17">
+        <v>0.902005</v>
+      </c>
+      <c r="E17">
+        <v>801.12</v>
+      </c>
+      <c r="F17">
+        <v>0.902455</v>
+      </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="11:12">
+      <c r="N17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1863262025</v>
+      </c>
+      <c r="P17" s="4">
+        <v>30328110</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>23114105</v>
+      </c>
+      <c r="R17" s="4">
+        <v>7224110</v>
+      </c>
+      <c r="S17" s="4">
+        <v>4640670</v>
+      </c>
+      <c r="T17" s="4">
+        <v>2573420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <f>AVERAGE(A14:A17)</f>
+        <v>2827.76</v>
+      </c>
+      <c r="B18">
+        <v>0.902005</v>
+      </c>
+      <c r="E18">
+        <v>799.21</v>
+      </c>
+      <c r="F18">
+        <v>0.902455</v>
+      </c>
       <c r="K18">
         <v>4573.64</v>
       </c>
       <c r="L18">
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="19" spans="4:12">
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1878594665</v>
+      </c>
+      <c r="P18" s="4">
+        <v>28998520</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>22234840</v>
+      </c>
+      <c r="R18" s="4">
+        <v>6773545</v>
+      </c>
+      <c r="S18" s="4">
+        <v>4410995</v>
+      </c>
+      <c r="T18" s="4">
+        <v>2228345</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17">
+      <c r="E19">
+        <v>756.505</v>
+      </c>
+      <c r="F19">
+        <v>0.902455</v>
       </c>
       <c r="K19">
         <v>4582.23</v>
@@ -1405,13 +1511,14 @@
       <c r="L19">
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="20" spans="4:12">
-      <c r="D20">
-        <v>7123.33</v>
-      </c>
-      <c r="E20">
-        <v>0.99995</v>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
       </c>
       <c r="K20">
         <v>4690.32</v>
@@ -1419,13 +1526,19 @@
       <c r="L20">
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="21" spans="4:12">
-      <c r="D21">
-        <v>4212.13</v>
-      </c>
-      <c r="E21">
-        <v>0.99995</v>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2391.53</v>
+      </c>
+      <c r="B21">
+        <v>0.902005</v>
       </c>
       <c r="K21">
         <v>4994.82</v>
@@ -1433,27 +1546,55 @@
       <c r="L21">
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="22" spans="4:12">
-      <c r="D22">
-        <v>5908.87</v>
-      </c>
-      <c r="E22">
-        <v>0.99995</v>
-      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="4">
+        <v>7648900000</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2408.27</v>
+      </c>
+      <c r="B22">
+        <v>0.902005</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
       <c r="K22">
         <v>4573.64</v>
       </c>
       <c r="L22">
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="23" spans="4:12">
-      <c r="D23">
-        <v>5908.87</v>
-      </c>
-      <c r="E23">
-        <v>0.99995</v>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" s="4">
+        <v>7411049800</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2392.97</v>
+      </c>
+      <c r="B23">
+        <v>0.902005</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K23">
         <f>AVERAGE(K18:K22)</f>
@@ -1463,81 +1604,385 @@
         <f>AVERAGE(L18:L22)</f>
         <v>0.99995</v>
       </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>2392.64</v>
+      </c>
+      <c r="B24">
+        <v>0.902005</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.27245</v>
+      </c>
+      <c r="H24" s="1">
+        <v>471.978</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="R24" s="4">
+        <v>5000</v>
+      </c>
+      <c r="S24">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19">
+      <c r="F25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.400351</v>
+      </c>
+      <c r="H25" s="1">
+        <v>478.112</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25">
+        <v>18247.5</v>
+      </c>
+      <c r="R25" s="4">
+        <v>17974.9</v>
+      </c>
+      <c r="S25">
+        <v>18004.7</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
+      <c r="F26" s="1">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.48645</v>
+      </c>
+      <c r="H26" s="1">
+        <v>489.113</v>
+      </c>
+      <c r="O26">
+        <v>696.25</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <f>AVERAGE(A21:A24)</f>
+        <v>2396.3525</v>
+      </c>
+      <c r="B27">
+        <v>0.902005</v>
+      </c>
+      <c r="F27" s="1">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.59745</v>
+      </c>
+      <c r="H27" s="1">
+        <v>501.493</v>
+      </c>
+      <c r="O27">
+        <v>699.375</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15">
+      <c r="F28" s="1">
+        <v>90</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.720751</v>
+      </c>
+      <c r="H28" s="1">
+        <v>547.407</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>695.979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.790802</v>
+      </c>
+      <c r="H29" s="1">
+        <v>570.865</v>
+      </c>
+      <c r="K29">
+        <v>7123.33</v>
+      </c>
+      <c r="L29">
+        <v>0.99995</v>
+      </c>
+      <c r="O29">
+        <v>700.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2">
+        <v>696.25</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.902455</v>
+      </c>
+      <c r="F30" s="1">
+        <v>170</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.834353</v>
+      </c>
+      <c r="H30" s="1">
+        <v>605.166</v>
+      </c>
+      <c r="K30">
+        <v>4212.13</v>
+      </c>
+      <c r="L30">
+        <v>0.99995</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE(O26:O29)</f>
+        <v>698.05725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>699.375</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.902455</v>
+      </c>
+      <c r="F31" s="1">
+        <v>210</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.866803</v>
+      </c>
+      <c r="H31" s="1">
+        <v>640.945</v>
+      </c>
+      <c r="K31">
+        <v>5908.87</v>
+      </c>
+      <c r="L31">
+        <v>0.99995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2">
+        <v>695.979</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.902455</v>
+      </c>
+      <c r="F32" s="1">
+        <v>250</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.888905</v>
+      </c>
+      <c r="H32" s="1">
+        <v>669.32</v>
+      </c>
+      <c r="K32">
+        <v>5908.87</v>
+      </c>
+      <c r="L32">
+        <v>0.99995</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2">
+        <v>700.625</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.902455</v>
+      </c>
+      <c r="F33" s="1">
+        <v>290</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.906305</v>
+      </c>
+      <c r="H33" s="1">
+        <v>696.414</v>
+      </c>
+      <c r="K33">
         <v>5301.64</v>
       </c>
-      <c r="E24">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25">
-        <f>AVERAGE(D20:D24)</f>
+      <c r="L33">
+        <v>0.99995</v>
+      </c>
+      <c r="O33">
+        <v>758.156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2">
+        <f>AVERAGE(A30:A33)</f>
+        <v>698.05725</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.902455</v>
+      </c>
+      <c r="F34" s="1">
+        <v>330</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.918705</v>
+      </c>
+      <c r="H34" s="1">
+        <v>768.15</v>
+      </c>
+      <c r="K34">
+        <f>AVERAGE(K29:K33)</f>
         <v>5690.968</v>
       </c>
-      <c r="E25">
-        <f>AVERAGE(E20:E24)</f>
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12">
-      <c r="K26" t="s">
+      <c r="L34">
+        <f>AVERAGE(L29:L33)</f>
+        <v>0.99995</v>
+      </c>
+      <c r="O34">
+        <v>759.52</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15">
+      <c r="F35" s="1">
+        <v>370</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.929055</v>
+      </c>
+      <c r="H35" s="1">
+        <v>760.404</v>
+      </c>
+      <c r="O35">
+        <v>801.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
+      <c r="B36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="11:12">
-      <c r="K27">
-        <v>7123.33</v>
-      </c>
-      <c r="L27">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12">
-      <c r="K28">
-        <v>4212.13</v>
-      </c>
-      <c r="L28">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12">
-      <c r="K29">
-        <v>5908.87</v>
-      </c>
-      <c r="L29">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12">
-      <c r="K30">
-        <v>5908.87</v>
-      </c>
-      <c r="L30">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="31" spans="11:12">
-      <c r="K31">
-        <v>5301.64</v>
-      </c>
-      <c r="L31">
-        <v>0.99995</v>
-      </c>
-    </row>
-    <row r="32" spans="11:12">
-      <c r="K32">
-        <f>AVERAGE(K27:K31)</f>
-        <v>5690.968</v>
-      </c>
-      <c r="L32">
-        <f>AVERAGE(L27:L31)</f>
-        <v>0.99995</v>
+      <c r="F36" s="1">
+        <v>410</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.937355</v>
+      </c>
+      <c r="H36" s="1">
+        <v>807.88</v>
+      </c>
+      <c r="O36">
+        <v>799.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>758.156</v>
+      </c>
+      <c r="B37">
+        <v>0.902455</v>
+      </c>
+      <c r="F37" s="1">
+        <v>450</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.945405</v>
+      </c>
+      <c r="H37" s="1">
+        <v>818.655</v>
+      </c>
+      <c r="O37">
+        <v>756.505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>759.52</v>
+      </c>
+      <c r="B38">
+        <v>0.902455</v>
+      </c>
+      <c r="F38" s="1">
+        <v>490</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.951054</v>
+      </c>
+      <c r="H38" s="1">
+        <v>839.306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>801.12</v>
+      </c>
+      <c r="B39">
+        <v>0.902455</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.985202</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1330.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>799.21</v>
+      </c>
+      <c r="B40">
+        <v>0.902455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>756.505</v>
+      </c>
+      <c r="B41">
+        <v>0.902455</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1998,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1570,7 +2015,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/SIMD编程/time.xlsx
+++ b/SIMD编程/time.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>time</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>不对齐：</t>
+  </si>
+  <si>
+    <t>time_flat_avx</t>
+  </si>
+  <si>
+    <t>time_simd_avx</t>
+  </si>
+  <si>
+    <t>time_flat_neon</t>
+  </si>
+  <si>
+    <t>time_跨向量simd_neon</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1065,7 +1077,9 @@
     <col min="3" max="3" width="12.7964601769912"/>
     <col min="4" max="5" width="10.5309734513274"/>
     <col min="6" max="8" width="9.53097345132743"/>
-    <col min="11" max="11" width="9.53097345132743"/>
+    <col min="10" max="10" width="22.9026548672566" customWidth="1"/>
+    <col min="11" max="11" width="29.4778761061947" customWidth="1"/>
+    <col min="13" max="13" width="12.7964601769912"/>
     <col min="14" max="14" width="23.4955752212389" customWidth="1"/>
     <col min="15" max="15" width="21.5044247787611" customWidth="1"/>
     <col min="16" max="16" width="20.8938053097345" customWidth="1"/>
@@ -1931,11 +1945,17 @@
       <c r="H37" s="1">
         <v>818.655</v>
       </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
       <c r="O37">
         <v>756.505</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>759.52</v>
       </c>
@@ -1951,8 +1971,14 @@
       <c r="H38" s="1">
         <v>839.306</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="J38">
+        <v>1129.79</v>
+      </c>
+      <c r="K38">
+        <v>802.563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>801.12</v>
       </c>
@@ -1968,21 +1994,79 @@
       <c r="H39" s="1">
         <v>1330.27</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="J39">
+        <v>1138.28</v>
+      </c>
+      <c r="K39">
+        <v>752.857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>799.21</v>
       </c>
       <c r="B40">
         <v>0.902455</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="J40">
+        <v>1143.9</v>
+      </c>
+      <c r="K40">
+        <v>751.557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>756.505</v>
       </c>
       <c r="B41">
         <v>0.902455</v>
+      </c>
+      <c r="J41">
+        <v>1097.76</v>
+      </c>
+      <c r="K41">
+        <v>750.966</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44">
+        <v>2824.07</v>
+      </c>
+      <c r="K44">
+        <v>2391.53</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45">
+        <v>2783.2</v>
+      </c>
+      <c r="K45">
+        <v>2408.27</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46">
+        <v>2889.45</v>
+      </c>
+      <c r="K46">
+        <v>2392.97</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47">
+        <v>2814.32</v>
+      </c>
+      <c r="K47">
+        <v>2392.64</v>
       </c>
     </row>
   </sheetData>

--- a/SIMD编程/time.xlsx
+++ b/SIMD编程/time.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -1064,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1077,6 +1077,7 @@
     <col min="3" max="3" width="12.7964601769912"/>
     <col min="4" max="5" width="10.5309734513274"/>
     <col min="6" max="8" width="9.53097345132743"/>
+    <col min="9" max="9" width="12.7964601769912"/>
     <col min="10" max="10" width="22.9026548672566" customWidth="1"/>
     <col min="11" max="11" width="29.4778761061947" customWidth="1"/>
     <col min="13" max="13" width="12.7964601769912"/>
@@ -1288,7 +1289,11 @@
         <v>9198956800</v>
       </c>
     </row>
-    <row r="11" spans="11:20">
+    <row r="11" spans="9:20">
+      <c r="I11">
+        <f>18247/1110</f>
+        <v>16.4387387387387</v>
+      </c>
       <c r="K11">
         <v>5849.69</v>
       </c>
@@ -1543,7 +1548,6 @@
       <c r="O20" t="s">
         <v>15</v>
       </c>
-      <c r="P20"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
@@ -1576,9 +1580,6 @@
       <c r="B22">
         <v>0.902005</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
       <c r="K22">
         <v>4573.64</v>
       </c>
@@ -2067,6 +2068,18 @@
       </c>
       <c r="K47">
         <v>2392.64</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54">
+        <v>1058</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
+      </c>
+      <c r="J54">
+        <f>G54/H54</f>
+        <v>1.76333333333333</v>
       </c>
     </row>
   </sheetData>
